--- a/Prototypes/Barley/Observations/CPT.xlsx
+++ b/Prototypes/Barley/Observations/CPT.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
